--- a/pubmed_validation_sheets/16878268 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/16878268 DISNET VALIDATION.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4E2725D-536E-A644-AD6D-8FF31CD4694E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC66E679-8FD6-684E-BA10-1CA4D3190AAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38500" yWindow="460" windowWidth="20680" windowHeight="21040" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="25320" windowHeight="15460" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -206,15 +209,6 @@
     <t>Diagnosis</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>Image (foundation metadata concept)</t>
-  </si>
-  <si>
-    <t>[inpr]</t>
-  </si>
-  <si>
     <t>analysis</t>
   </si>
   <si>
@@ -258,15 +252,6 @@
   </si>
   <si>
     <t>Anemia of chronic disease</t>
-  </si>
-  <si>
-    <t>tissue, section</t>
-  </si>
-  <si>
-    <t>Tissue section</t>
-  </si>
-  <si>
-    <t>[tisu]</t>
   </si>
   <si>
     <t>aids</t>
@@ -345,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +665,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -994,13 +982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
@@ -1010,9 +998,10 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="136" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="136" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +1013,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1031,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1096,8 +1085,12 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1125,8 +1118,12 @@
       <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1152,10 +1149,14 @@
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1181,10 +1182,14 @@
         <v>11</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1210,10 +1215,14 @@
         <v>11</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1241,8 +1250,12 @@
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1270,8 +1283,12 @@
       <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1299,8 +1316,12 @@
       <c r="I11" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1328,8 +1349,12 @@
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1357,8 +1382,12 @@
       <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1386,8 +1415,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1415,8 +1448,12 @@
       <c r="I15" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1444,8 +1481,12 @@
       <c r="I16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1471,10 +1512,14 @@
         <v>11</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1502,8 +1547,12 @@
       <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1531,8 +1580,12 @@
       <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1560,8 +1613,12 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1589,8 +1646,12 @@
       <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1618,8 +1679,12 @@
       <c r="I22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1647,8 +1712,12 @@
       <c r="I23" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1659,7 +1728,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E24" s="10" t="b">
         <v>0</v>
@@ -1674,21 +1743,25 @@
         <v>12</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10" t="b">
         <v>0</v>
@@ -1703,18 +1776,22 @@
         <v>12</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>17</v>
@@ -1734,19 +1811,23 @@
       <c r="I26" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" s="10" t="b">
         <v>0</v>
@@ -1763,19 +1844,23 @@
       <c r="I27" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" s="10" t="b">
         <v>0</v>
@@ -1792,16 +1877,20 @@
       <c r="I28" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>17</v>
@@ -1819,18 +1908,22 @@
         <v>12</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>17</v>
@@ -1848,21 +1941,25 @@
         <v>12</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E31" s="10" t="b">
         <v>0</v>
@@ -1879,19 +1976,23 @@
       <c r="I31" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="E32" s="10" t="b">
         <v>0</v>
@@ -1908,16 +2009,20 @@
       <c r="I32" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>20</v>
@@ -1935,21 +2040,25 @@
         <v>12</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D34" s="10" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E34" s="10" t="b">
         <v>0</v>
@@ -1964,21 +2073,25 @@
         <v>12</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E35" s="10" t="b">
         <v>0</v>
@@ -1993,21 +2106,25 @@
         <v>12</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E36" s="10" t="b">
         <v>0</v>
@@ -2024,19 +2141,23 @@
       <c r="I36" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E37" s="10" t="b">
         <v>0</v>
@@ -2053,19 +2174,23 @@
       <c r="I37" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E38" s="10" t="b">
         <v>0</v>
@@ -2080,21 +2205,25 @@
         <v>12</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E39" s="10" t="b">
         <v>0</v>
@@ -2109,98 +2238,49 @@
         <v>12</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="10" t="b">
-        <v>0</v>
-      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{1E7C2526-E97E-FB4B-877B-8188041DA60A}">
+    <sortState ref="A4:I39">
+      <sortCondition ref="A3:A39"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
